--- a/ocms/src/test/resources/TestData/BranchManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/BranchManagementData.xlsx
@@ -4,25 +4,136 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Edit" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Branch Name</t>
-  </si>
-  <si>
-    <t>Kormangala</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+  <si>
+    <t>MainLines</t>
+  </si>
+  <si>
+    <t>SubLines</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>BranchType</t>
+  </si>
+  <si>
+    <t>BranchName</t>
+  </si>
+  <si>
+    <t>Line/Estate Order</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>Central Zone</t>
+  </si>
+  <si>
+    <t>Houchaung</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>BranchName.wav</t>
+  </si>
+  <si>
+    <t>Address.wav</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Branch Wave</t>
+  </si>
+  <si>
+    <t>Address Wave</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>East-West Line</t>
+  </si>
+  <si>
+    <t>China Town</t>
+  </si>
+  <si>
+    <t>POSB</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>welcome.wav</t>
+  </si>
+  <si>
+    <t>Update SubLines</t>
+  </si>
+  <si>
+    <t>Update Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Zone </t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>North Zone</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -58,8 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,25 +475,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -387,26 +766,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/BranchManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/BranchManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
@@ -477,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/BranchManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/BranchManagementData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:N11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>MainLines</t>
   </si>
@@ -79,33 +80,9 @@
     <t>2</t>
   </si>
   <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>East-West Line</t>
-  </si>
-  <si>
-    <t>China Town</t>
-  </si>
-  <si>
-    <t>POSB</t>
-  </si>
-  <si>
     <t>Disable</t>
   </si>
   <si>
-    <t>Mandarin</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>welcome.wav</t>
-  </si>
-  <si>
     <t>Update SubLines</t>
   </si>
   <si>
@@ -130,10 +107,23 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT [SYNONYM_ONE] as MainLines
+      ,[SYNONYM_TWO] as SubLines
+   ,[LOCATION] as Location
+      ,[SYNONYM_FIVE] as 'BranchType'
+   ,[BRANCH_WAVFILE] as 'Branch Wav File'
+      ,[ADDRESS_WAVFILE] as 'Address Wav File'
+   ,[BRANCH_NAME] as 'Branch Name'
+      ,[ADDRESS_TEXT] as 'Address Text'     
+      ,[SYNONYM_FOUR] as 'Line/Estate Order'
+   ,[STATUS] as Status
+      ,[LANGUAGE] as Language
+      ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,[LAST_CHANGED_ON] as 'Last Changed On'
+  FROM [IVR_BRANCH_DETAILS]</t>
   </si>
 </sst>
 </file>
@@ -173,7 +163,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +175,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -231,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,41 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -609,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -664,13 +625,13 @@
         <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -708,13 +669,13 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -755,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -771,11 +732,13 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
@@ -816,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
@@ -824,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -842,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -854,45 +817,36 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/BranchManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/BranchManagementData.xlsx
@@ -3,22 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>MainLines</t>
   </si>
@@ -124,6 +129,21 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,[LAST_CHANGED_ON] as 'Last Changed On'
   FROM [IVR_BRANCH_DETAILS]</t>
+  </si>
+  <si>
+    <t>Sengkang West Line</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>kang</t>
   </si>
 </sst>
 </file>
@@ -470,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +509,7 @@
     <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -559,7 +579,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -590,7 +609,7 @@
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -678,7 +697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -729,7 +748,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -744,7 +763,7 @@
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -820,7 +839,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -830,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -852,4 +870,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/BranchManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/BranchManagementData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="E1:R9"/>
 </workbook>
 </file>
 
@@ -493,7 +489,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -876,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/BranchManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/BranchManagementData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,11 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="E1:R9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>MainLines</t>
   </si>
@@ -140,6 +144,9 @@
   </si>
   <si>
     <t>kang</t>
+  </si>
+  <si>
+    <t>Whether</t>
   </si>
 </sst>
 </file>
@@ -489,7 +496,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -870,10 +877,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,6 +957,41 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/BranchManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/BranchManagementData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14385" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,8 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="E1:N20"/>
 </workbook>
 </file>
 
@@ -249,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -879,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
